--- a/Data/EXO/MiRNAsequences.xlsx
+++ b/Data/EXO/MiRNAsequences.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hrobinson\Documents\GITSTUFF\Data\EXO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harle_000\Documents\HONOURS\NewGIT\Data\EXO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>146a-5'</t>
   </si>
@@ -132,13 +132,52 @@
   </si>
   <si>
     <t>UAACACUGUCUGGUAACGAUGU</t>
+  </si>
+  <si>
+    <t>Reverse primer</t>
+  </si>
+  <si>
+    <t>aaaguucugagacacuccgacu</t>
+  </si>
+  <si>
+    <t>Tm</t>
+  </si>
+  <si>
+    <t>GC%</t>
+  </si>
+  <si>
+    <t>ccucugaaauucaguucuucag</t>
+  </si>
+  <si>
+    <t>ugagugugugugugugagugugu</t>
+  </si>
+  <si>
+    <t>cggguggaucacgaugcaauuu</t>
+  </si>
+  <si>
+    <t>aguuuugcauaguugcacuaca</t>
+  </si>
+  <si>
+    <t>acuguaguaugggcacuuccag</t>
+  </si>
+  <si>
+    <t>cuuucagucggauguuugcagc</t>
+  </si>
+  <si>
+    <t>acagauucgauucuaggggaau</t>
+  </si>
+  <si>
+    <t>caucuuaccggacagugcugga</t>
+  </si>
+  <si>
+    <t>use mir-107-2 or 125a for an endogenous control</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +189,17 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -173,12 +223,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,87 +514,187 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40:F41"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2">
+        <v>51.1</v>
+      </c>
+      <c r="H2">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3">
+        <v>53</v>
+      </c>
+      <c r="H3">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4">
+        <v>55</v>
+      </c>
+      <c r="H4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5">
+        <v>55</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6">
+        <v>49</v>
+      </c>
+      <c r="H6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7">
+        <v>55</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8">
+        <v>55</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9">
+        <v>51</v>
+      </c>
+      <c r="H9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10">
+        <v>57</v>
+      </c>
+      <c r="H10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>18</v>
       </c>

--- a/Data/EXO/MiRNAsequences.xlsx
+++ b/Data/EXO/MiRNAsequences.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harle_000\Documents\HONOURS\NewGIT\Data\EXO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hrobinson\Documents\GITSTUFF\Data\EXO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -134,9 +134,6 @@
     <t>UAACACUGUCUGGUAACGAUGU</t>
   </si>
   <si>
-    <t>Reverse primer</t>
-  </si>
-  <si>
     <t>aaaguucugagacacuccgacu</t>
   </si>
   <si>
@@ -171,6 +168,9 @@
   </si>
   <si>
     <t>use mir-107-2 or 125a for an endogenous control</t>
+  </si>
+  <si>
+    <t>Reverse "primer"</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,13 +527,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
         <v>38</v>
-      </c>
-      <c r="H1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -544,7 +544,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2">
         <v>51.1</v>
@@ -561,7 +561,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3">
         <v>53</v>
@@ -578,7 +578,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4">
         <v>55</v>
@@ -595,7 +595,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5">
         <v>55</v>
@@ -612,7 +612,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6">
         <v>49</v>
@@ -629,7 +629,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7">
         <v>55</v>
@@ -646,7 +646,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8">
         <v>55</v>
@@ -663,7 +663,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>51</v>
@@ -680,7 +680,7 @@
         <v>17</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10">
         <v>57</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">

--- a/Data/EXO/MiRNAsequences.xlsx
+++ b/Data/EXO/MiRNAsequences.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9510"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>146a-5'</t>
   </si>
@@ -171,6 +171,30 @@
   </si>
   <si>
     <t>Reverse "primer"</t>
+  </si>
+  <si>
+    <t>&gt;hsa-miR-148a-3p</t>
+  </si>
+  <si>
+    <t>TCAGTGCACTACAGAACTTTGT</t>
+  </si>
+  <si>
+    <t>&gt;hsa-miR-30a-5p</t>
+  </si>
+  <si>
+    <t>TGTAAACATCCTCGACTGGAAG</t>
+  </si>
+  <si>
+    <t>&gt;hsa-miR-200a-3p</t>
+  </si>
+  <si>
+    <t>TAACACTGTCTGGTAACGATGT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;hsa-miR-20b-5p </t>
+  </si>
+  <si>
+    <t>CAAAGTGCTCATAGTGCAGGTAG</t>
   </si>
 </sst>
 </file>
@@ -517,7 +541,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="B29" sqref="B29:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,87 +723,119 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F22" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F23" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F28" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
       <c r="F29" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F31" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>51</v>
+      </c>
       <c r="F32" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F34" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
       <c r="F35" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F37" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
       <c r="F38" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F40" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F41" s="1" t="s">
         <v>35</v>
       </c>
